--- a/natmiOut/OldD2/LR-pairs_lrc2p/Bmp8a-Tgfbr1.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Bmp8a-Tgfbr1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,12 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>Neutro</t>
   </si>
   <si>
@@ -92,12 +98,6 @@
   </si>
   <si>
     <t>Tgfbr1</t>
-  </si>
-  <si>
-    <t>M1</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T25"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.902467888902425</v>
+        <v>0.9146825000000001</v>
       </c>
       <c r="H2">
-        <v>0.902467888902425</v>
+        <v>1.829365</v>
       </c>
       <c r="I2">
-        <v>0.4560640709233947</v>
+        <v>0.3844151897968113</v>
       </c>
       <c r="J2">
-        <v>0.4560640709233947</v>
+        <v>0.3128975648803649</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>14.2046695519863</v>
+        <v>14.423744</v>
       </c>
       <c r="N2">
-        <v>14.2046695519863</v>
+        <v>28.847488</v>
       </c>
       <c r="O2">
-        <v>0.07104063749809195</v>
+        <v>0.06684772114689447</v>
       </c>
       <c r="P2">
-        <v>0.07104063749809195</v>
+        <v>0.04668958901604686</v>
       </c>
       <c r="Q2">
-        <v>12.81925814313763</v>
+        <v>13.19314622128</v>
       </c>
       <c r="R2">
-        <v>12.81925814313763</v>
+        <v>52.77258488512</v>
       </c>
       <c r="S2">
-        <v>0.03239908233837298</v>
+        <v>0.02569727941216775</v>
       </c>
       <c r="T2">
-        <v>0.03239908233837298</v>
+        <v>0.0146090587083861</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.902467888902425</v>
+        <v>0.9146825000000001</v>
       </c>
       <c r="H3">
-        <v>0.902467888902425</v>
+        <v>1.829365</v>
       </c>
       <c r="I3">
-        <v>0.4560640709233947</v>
+        <v>0.3844151897968113</v>
       </c>
       <c r="J3">
-        <v>0.4560640709233947</v>
+        <v>0.3128975648803649</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>12.37396553321</v>
+        <v>13.019874</v>
       </c>
       <c r="N3">
-        <v>12.37396553321</v>
+        <v>39.059622</v>
       </c>
       <c r="O3">
-        <v>0.06188488909520136</v>
+        <v>0.06034140002205402</v>
       </c>
       <c r="P3">
-        <v>0.06188488909520136</v>
+        <v>0.06321790300431507</v>
       </c>
       <c r="Q3">
-        <v>11.1671065521074</v>
+        <v>11.909050900005</v>
       </c>
       <c r="R3">
-        <v>11.1671065521074</v>
+        <v>71.45430540003001</v>
       </c>
       <c r="S3">
-        <v>0.02822347444940033</v>
+        <v>0.02319615074208321</v>
       </c>
       <c r="T3">
-        <v>0.02822347444940033</v>
+        <v>0.01978072790689329</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.902467888902425</v>
+        <v>0.9146825000000001</v>
       </c>
       <c r="H4">
-        <v>0.902467888902425</v>
+        <v>1.829365</v>
       </c>
       <c r="I4">
-        <v>0.4560640709233947</v>
+        <v>0.3844151897968113</v>
       </c>
       <c r="J4">
-        <v>0.4560640709233947</v>
+        <v>0.3128975648803649</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>53.5657280444015</v>
+        <v>65.70614066666667</v>
       </c>
       <c r="N4">
-        <v>53.5657280444015</v>
+        <v>197.118422</v>
       </c>
       <c r="O4">
-        <v>0.2678938397262179</v>
+        <v>0.3045191157666107</v>
       </c>
       <c r="P4">
-        <v>0.2678938397262179</v>
+        <v>0.3190356855568045</v>
       </c>
       <c r="Q4">
-        <v>48.34134950575245</v>
+        <v>60.10025701033834</v>
       </c>
       <c r="R4">
-        <v>48.34134950575245</v>
+        <v>360.60154206203</v>
       </c>
       <c r="S4">
-        <v>0.1221767551208384</v>
+        <v>0.1170617736841788</v>
       </c>
       <c r="T4">
-        <v>0.1221767551208384</v>
+        <v>0.09982548912066194</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.902467888902425</v>
+        <v>0.9146825000000001</v>
       </c>
       <c r="H5">
-        <v>0.902467888902425</v>
+        <v>1.829365</v>
       </c>
       <c r="I5">
-        <v>0.4560640709233947</v>
+        <v>0.3844151897968113</v>
       </c>
       <c r="J5">
-        <v>0.4560640709233947</v>
+        <v>0.3128975648803649</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>94.24425453379919</v>
+        <v>96.450714</v>
       </c>
       <c r="N5">
-        <v>94.24425453379919</v>
+        <v>289.352142</v>
       </c>
       <c r="O5">
-        <v>0.4713359855440863</v>
+        <v>0.4470067157244936</v>
       </c>
       <c r="P5">
-        <v>0.4713359855440863</v>
+        <v>0.4683157365692581</v>
       </c>
       <c r="Q5">
-        <v>85.05241343030056</v>
+        <v>88.22178020830501</v>
       </c>
       <c r="R5">
-        <v>85.05241343030056</v>
+        <v>529.33068124983</v>
       </c>
       <c r="S5">
-        <v>0.2149594083399263</v>
+        <v>0.1718361714656805</v>
       </c>
       <c r="T5">
-        <v>0.2149594083399263</v>
+        <v>0.1465348535676753</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,61 +776,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>22</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.902467888902425</v>
+        <v>0.9146825000000001</v>
       </c>
       <c r="H6">
-        <v>0.902467888902425</v>
+        <v>1.829365</v>
       </c>
       <c r="I6">
-        <v>0.4560640709233947</v>
+        <v>0.3844151897968113</v>
       </c>
       <c r="J6">
-        <v>0.4560640709233947</v>
+        <v>0.3128975648803649</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>10.9357766761738</v>
+        <v>11.139906</v>
       </c>
       <c r="N6">
-        <v>10.9357766761738</v>
+        <v>33.419718</v>
       </c>
       <c r="O6">
-        <v>0.05469219426533697</v>
+        <v>0.05162857368313087</v>
       </c>
       <c r="P6">
-        <v>0.05469219426533697</v>
+        <v>0.05408973212683835</v>
       </c>
       <c r="Q6">
-        <v>9.869187290454947</v>
+        <v>10.189477069845</v>
       </c>
       <c r="R6">
-        <v>9.869187290454947</v>
+        <v>61.13686241907001</v>
       </c>
       <c r="S6">
-        <v>0.02494314476438272</v>
+        <v>0.01984680795133941</v>
       </c>
       <c r="T6">
-        <v>0.02494314476438272</v>
+        <v>0.01692454546751896</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,61 +838,61 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
         <v>25</v>
       </c>
-      <c r="D7" t="s">
-        <v>23</v>
-      </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.902467888902425</v>
+        <v>0.9146825000000001</v>
       </c>
       <c r="H7">
-        <v>0.902467888902425</v>
+        <v>1.829365</v>
       </c>
       <c r="I7">
-        <v>0.4560640709233947</v>
+        <v>0.3844151897968113</v>
       </c>
       <c r="J7">
-        <v>0.4560640709233947</v>
+        <v>0.3128975648803649</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>14.6269300325932</v>
+        <v>15.029789</v>
       </c>
       <c r="N7">
-        <v>14.6269300325932</v>
+        <v>30.059578</v>
       </c>
       <c r="O7">
-        <v>0.0731524538710656</v>
+        <v>0.06965647365681629</v>
       </c>
       <c r="P7">
-        <v>0.0731524538710656</v>
+        <v>0.04865135372673711</v>
       </c>
       <c r="Q7">
-        <v>13.20033466763786</v>
+        <v>13.7474849769925</v>
       </c>
       <c r="R7">
-        <v>13.20033466763786</v>
+        <v>54.98993990797</v>
       </c>
       <c r="S7">
-        <v>0.03336220591047402</v>
+        <v>0.02677700654136162</v>
       </c>
       <c r="T7">
-        <v>0.03336220591047402</v>
+        <v>0.01522289010922931</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.217375830129206</v>
+        <v>0.2215323333333334</v>
       </c>
       <c r="H8">
-        <v>0.217375830129206</v>
+        <v>0.6645970000000001</v>
       </c>
       <c r="I8">
-        <v>0.1098513390095775</v>
+        <v>0.0931037753148921</v>
       </c>
       <c r="J8">
-        <v>0.1098513390095775</v>
+        <v>0.1136737517809709</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>14.2046695519863</v>
+        <v>14.423744</v>
       </c>
       <c r="N8">
-        <v>14.2046695519863</v>
+        <v>28.847488</v>
       </c>
       <c r="O8">
-        <v>0.07104063749809195</v>
+        <v>0.06684772114689447</v>
       </c>
       <c r="P8">
-        <v>0.07104063749809195</v>
+        <v>0.04668958901604686</v>
       </c>
       <c r="Q8">
-        <v>3.087751835574078</v>
+        <v>3.195325663722667</v>
       </c>
       <c r="R8">
-        <v>3.087751835574078</v>
+        <v>19.171953982336</v>
       </c>
       <c r="S8">
-        <v>0.007803909153259401</v>
+        <v>0.006223775209973023</v>
       </c>
       <c r="T8">
-        <v>0.007803909153259401</v>
+        <v>0.005307380752565659</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,61 +962,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.217375830129206</v>
+        <v>0.2215323333333334</v>
       </c>
       <c r="H9">
-        <v>0.217375830129206</v>
+        <v>0.6645970000000001</v>
       </c>
       <c r="I9">
-        <v>0.1098513390095775</v>
+        <v>0.0931037753148921</v>
       </c>
       <c r="J9">
-        <v>0.1098513390095775</v>
+        <v>0.1136737517809709</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>12.37396553321</v>
+        <v>13.019874</v>
       </c>
       <c r="N9">
-        <v>12.37396553321</v>
+        <v>39.059622</v>
       </c>
       <c r="O9">
-        <v>0.06188488909520136</v>
+        <v>0.06034140002205402</v>
       </c>
       <c r="P9">
-        <v>0.06188488909520136</v>
+        <v>0.06321790300431507</v>
       </c>
       <c r="Q9">
-        <v>2.689801029771707</v>
+        <v>2.884323066926</v>
       </c>
       <c r="R9">
-        <v>2.689801029771707</v>
+        <v>25.95890760233401</v>
       </c>
       <c r="S9">
-        <v>0.006798137931567069</v>
+        <v>0.005618012149839343</v>
       </c>
       <c r="T9">
-        <v>0.006798137931567069</v>
+        <v>0.007186216214226008</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,61 +1024,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.217375830129206</v>
+        <v>0.2215323333333334</v>
       </c>
       <c r="H10">
-        <v>0.217375830129206</v>
+        <v>0.6645970000000001</v>
       </c>
       <c r="I10">
-        <v>0.1098513390095775</v>
+        <v>0.0931037753148921</v>
       </c>
       <c r="J10">
-        <v>0.1098513390095775</v>
+        <v>0.1136737517809709</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>53.5657280444015</v>
+        <v>65.70614066666667</v>
       </c>
       <c r="N10">
-        <v>53.5657280444015</v>
+        <v>197.118422</v>
       </c>
       <c r="O10">
-        <v>0.2678938397262179</v>
+        <v>0.3045191157666107</v>
       </c>
       <c r="P10">
-        <v>0.2678938397262179</v>
+        <v>0.3190356855568045</v>
       </c>
       <c r="Q10">
-        <v>11.64389460012707</v>
+        <v>14.55603465621489</v>
       </c>
       <c r="R10">
-        <v>11.64389460012707</v>
+        <v>131.004311905934</v>
       </c>
       <c r="S10">
-        <v>0.02942849700634218</v>
+        <v>0.02835187933342414</v>
       </c>
       <c r="T10">
-        <v>0.02942849700634218</v>
+        <v>0.03626598332925609</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,61 +1086,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.217375830129206</v>
+        <v>0.2215323333333334</v>
       </c>
       <c r="H11">
-        <v>0.217375830129206</v>
+        <v>0.6645970000000001</v>
       </c>
       <c r="I11">
-        <v>0.1098513390095775</v>
+        <v>0.0931037753148921</v>
       </c>
       <c r="J11">
-        <v>0.1098513390095775</v>
+        <v>0.1136737517809709</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>94.24425453379919</v>
+        <v>96.450714</v>
       </c>
       <c r="N11">
-        <v>94.24425453379919</v>
+        <v>289.352142</v>
       </c>
       <c r="O11">
-        <v>0.4713359855440863</v>
+        <v>0.4470067157244936</v>
       </c>
       <c r="P11">
-        <v>0.4713359855440863</v>
+        <v>0.4683157365692581</v>
       </c>
       <c r="Q11">
-        <v>20.48642306419278</v>
+        <v>21.366951724086</v>
       </c>
       <c r="R11">
-        <v>20.48642306419278</v>
+        <v>192.3025655167741</v>
       </c>
       <c r="S11">
-        <v>0.05177688913541673</v>
+        <v>0.0416180128250611</v>
       </c>
       <c r="T11">
-        <v>0.05177688913541673</v>
+        <v>0.05323520679389642</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,61 +1148,61 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" t="s">
         <v>24</v>
       </c>
-      <c r="C12" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" t="s">
-        <v>22</v>
-      </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.217375830129206</v>
+        <v>0.2215323333333334</v>
       </c>
       <c r="H12">
-        <v>0.217375830129206</v>
+        <v>0.6645970000000001</v>
       </c>
       <c r="I12">
-        <v>0.1098513390095775</v>
+        <v>0.0931037753148921</v>
       </c>
       <c r="J12">
-        <v>0.1098513390095775</v>
+        <v>0.1136737517809709</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>10.9357766761738</v>
+        <v>11.139906</v>
       </c>
       <c r="N12">
-        <v>10.9357766761738</v>
+        <v>33.419718</v>
       </c>
       <c r="O12">
-        <v>0.05469219426533697</v>
+        <v>0.05162857368313087</v>
       </c>
       <c r="P12">
-        <v>0.05469219426533697</v>
+        <v>0.05408973212683835</v>
       </c>
       <c r="Q12">
-        <v>2.377173533090889</v>
+        <v>2.467849369294</v>
       </c>
       <c r="R12">
-        <v>2.377173533090889</v>
+        <v>22.210644323646</v>
       </c>
       <c r="S12">
-        <v>0.006008010773419201</v>
+        <v>0.004806815124022567</v>
       </c>
       <c r="T12">
-        <v>0.006008010773419201</v>
+        <v>0.006148582783685433</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,61 +1210,61 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
         <v>25</v>
       </c>
-      <c r="D13" t="s">
-        <v>23</v>
-      </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.217375830129206</v>
+        <v>0.2215323333333334</v>
       </c>
       <c r="H13">
-        <v>0.217375830129206</v>
+        <v>0.6645970000000001</v>
       </c>
       <c r="I13">
-        <v>0.1098513390095775</v>
+        <v>0.0931037753148921</v>
       </c>
       <c r="J13">
-        <v>0.1098513390095775</v>
+        <v>0.1136737517809709</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>14.6269300325932</v>
+        <v>15.029789</v>
       </c>
       <c r="N13">
-        <v>14.6269300325932</v>
+        <v>30.059578</v>
       </c>
       <c r="O13">
-        <v>0.0731524538710656</v>
+        <v>0.06965647365681629</v>
       </c>
       <c r="P13">
-        <v>0.0731524538710656</v>
+        <v>0.04865135372673711</v>
       </c>
       <c r="Q13">
-        <v>3.179541058076761</v>
+        <v>3.329584226677667</v>
       </c>
       <c r="R13">
-        <v>3.179541058076761</v>
+        <v>19.977505360066</v>
       </c>
       <c r="S13">
-        <v>0.008035895009572906</v>
+        <v>0.006485280672571925</v>
       </c>
       <c r="T13">
-        <v>0.008035895009572906</v>
+        <v>0.00553038190734133</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,61 +1272,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.5195772889052001</v>
+        <v>0.1266516666666667</v>
       </c>
       <c r="H14">
-        <v>0.5195772889052001</v>
+        <v>0.379955</v>
       </c>
       <c r="I14">
-        <v>0.2625694902293266</v>
+        <v>0.05322811410489338</v>
       </c>
       <c r="J14">
-        <v>0.2625694902293266</v>
+        <v>0.06498812115904647</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>14.2046695519863</v>
+        <v>14.423744</v>
       </c>
       <c r="N14">
-        <v>14.2046695519863</v>
+        <v>28.847488</v>
       </c>
       <c r="O14">
-        <v>0.07104063749809195</v>
+        <v>0.06684772114689447</v>
       </c>
       <c r="P14">
-        <v>0.07104063749809195</v>
+        <v>0.04668958901604686</v>
       </c>
       <c r="Q14">
-        <v>7.380423695615284</v>
+        <v>1.826791217173333</v>
       </c>
       <c r="R14">
-        <v>7.380423695615284</v>
+        <v>10.96074730304</v>
       </c>
       <c r="S14">
-        <v>0.01865310397344038</v>
+        <v>0.003558178128858993</v>
       </c>
       <c r="T14">
-        <v>0.01865310397344038</v>
+        <v>0.003034268667840938</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,61 +1334,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.5195772889052001</v>
+        <v>0.1266516666666667</v>
       </c>
       <c r="H15">
-        <v>0.5195772889052001</v>
+        <v>0.379955</v>
       </c>
       <c r="I15">
-        <v>0.2625694902293266</v>
+        <v>0.05322811410489338</v>
       </c>
       <c r="J15">
-        <v>0.2625694902293266</v>
+        <v>0.06498812115904647</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>12.37396553321</v>
+        <v>13.019874</v>
       </c>
       <c r="N15">
-        <v>12.37396553321</v>
+        <v>39.059622</v>
       </c>
       <c r="O15">
-        <v>0.06188488909520136</v>
+        <v>0.06034140002205402</v>
       </c>
       <c r="P15">
-        <v>0.06188488909520136</v>
+        <v>0.06321790300431507</v>
       </c>
       <c r="Q15">
-        <v>6.42923146475164</v>
+        <v>1.64898874189</v>
       </c>
       <c r="R15">
-        <v>6.42923146475164</v>
+        <v>14.84089867701</v>
       </c>
       <c r="S15">
-        <v>0.01624908378262543</v>
+        <v>0.003211858925622907</v>
       </c>
       <c r="T15">
-        <v>0.01624908378262543</v>
+        <v>0.004108412739865275</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,61 +1396,61 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.5195772889052001</v>
+        <v>0.1266516666666667</v>
       </c>
       <c r="H16">
-        <v>0.5195772889052001</v>
+        <v>0.379955</v>
       </c>
       <c r="I16">
-        <v>0.2625694902293266</v>
+        <v>0.05322811410489338</v>
       </c>
       <c r="J16">
-        <v>0.2625694902293266</v>
+        <v>0.06498812115904647</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>53.5657280444015</v>
+        <v>65.70614066666667</v>
       </c>
       <c r="N16">
-        <v>53.5657280444015</v>
+        <v>197.118422</v>
       </c>
       <c r="O16">
-        <v>0.2678938397262179</v>
+        <v>0.3045191157666107</v>
       </c>
       <c r="P16">
-        <v>0.2678938397262179</v>
+        <v>0.3190356855568045</v>
       </c>
       <c r="Q16">
-        <v>27.83153575554338</v>
+        <v>8.321792225667778</v>
       </c>
       <c r="R16">
-        <v>27.83153575554338</v>
+        <v>74.89613003101</v>
       </c>
       <c r="S16">
-        <v>0.07034074893248994</v>
+        <v>0.01620897824114639</v>
       </c>
       <c r="T16">
-        <v>0.07034074893248994</v>
+        <v>0.02073352978702506</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,61 +1458,61 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D17" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>0.5195772889052001</v>
+        <v>0.1266516666666667</v>
       </c>
       <c r="H17">
-        <v>0.5195772889052001</v>
+        <v>0.379955</v>
       </c>
       <c r="I17">
-        <v>0.2625694902293266</v>
+        <v>0.05322811410489338</v>
       </c>
       <c r="J17">
-        <v>0.2625694902293266</v>
+        <v>0.06498812115904647</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>94.24425453379919</v>
+        <v>96.450714</v>
       </c>
       <c r="N17">
-        <v>94.24425453379919</v>
+        <v>289.352142</v>
       </c>
       <c r="O17">
-        <v>0.4713359855440863</v>
+        <v>0.4470067157244936</v>
       </c>
       <c r="P17">
-        <v>0.4713359855440863</v>
+        <v>0.4683157365692581</v>
       </c>
       <c r="Q17">
-        <v>48.967174265563</v>
+        <v>12.21564367929</v>
       </c>
       <c r="R17">
-        <v>48.967174265563</v>
+        <v>109.94079311361</v>
       </c>
       <c r="S17">
-        <v>0.123758449451048</v>
+        <v>0.02379332447023699</v>
       </c>
       <c r="T17">
-        <v>0.123758449451048</v>
+        <v>0.03043495982885103</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,61 +1520,61 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
         <v>24</v>
       </c>
-      <c r="C18" t="s">
-        <v>25</v>
-      </c>
-      <c r="D18" t="s">
-        <v>22</v>
-      </c>
       <c r="E18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G18">
-        <v>0.5195772889052001</v>
+        <v>0.1266516666666667</v>
       </c>
       <c r="H18">
-        <v>0.5195772889052001</v>
+        <v>0.379955</v>
       </c>
       <c r="I18">
-        <v>0.2625694902293266</v>
+        <v>0.05322811410489338</v>
       </c>
       <c r="J18">
-        <v>0.2625694902293266</v>
+        <v>0.06498812115904647</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>10.9357766761738</v>
+        <v>11.139906</v>
       </c>
       <c r="N18">
-        <v>10.9357766761738</v>
+        <v>33.419718</v>
       </c>
       <c r="O18">
-        <v>0.05469219426533697</v>
+        <v>0.05162857368313087</v>
       </c>
       <c r="P18">
-        <v>0.05469219426533697</v>
+        <v>0.05408973212683835</v>
       </c>
       <c r="Q18">
-        <v>5.681981197479103</v>
+        <v>1.41088766141</v>
       </c>
       <c r="R18">
-        <v>5.681981197479103</v>
+        <v>12.69798895269</v>
       </c>
       <c r="S18">
-        <v>0.01436050156777283</v>
+        <v>0.002748091611078585</v>
       </c>
       <c r="T18">
-        <v>0.01436050156777283</v>
+        <v>0.003515190064919339</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,61 +1582,61 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
         <v>25</v>
       </c>
-      <c r="D19" t="s">
-        <v>23</v>
-      </c>
       <c r="E19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G19">
-        <v>0.5195772889052001</v>
+        <v>0.1266516666666667</v>
       </c>
       <c r="H19">
-        <v>0.5195772889052001</v>
+        <v>0.379955</v>
       </c>
       <c r="I19">
-        <v>0.2625694902293266</v>
+        <v>0.05322811410489338</v>
       </c>
       <c r="J19">
-        <v>0.2625694902293266</v>
+        <v>0.06498812115904647</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>14.6269300325932</v>
+        <v>15.029789</v>
       </c>
       <c r="N19">
-        <v>14.6269300325932</v>
+        <v>30.059578</v>
       </c>
       <c r="O19">
-        <v>0.0731524538710656</v>
+        <v>0.06965647365681629</v>
       </c>
       <c r="P19">
-        <v>0.0731524538710656</v>
+        <v>0.04865135372673711</v>
       </c>
       <c r="Q19">
-        <v>7.599820651340825</v>
+        <v>1.903547826498333</v>
       </c>
       <c r="R19">
-        <v>7.599820651340825</v>
+        <v>11.42128695899</v>
       </c>
       <c r="S19">
-        <v>0.01920760252195002</v>
+        <v>0.003707682727949517</v>
       </c>
       <c r="T19">
-        <v>0.01920760252195002</v>
+        <v>0.003161760070544818</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1644,10 +1644,10 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D20" t="s">
         <v>20</v>
@@ -1656,49 +1656,49 @@
         <v>1</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G20">
-        <v>0.339397203011457</v>
+        <v>0.1966663333333334</v>
       </c>
       <c r="H20">
-        <v>0.339397203011457</v>
+        <v>0.5899990000000001</v>
       </c>
       <c r="I20">
-        <v>0.1715150998377012</v>
+        <v>0.08265329866371805</v>
       </c>
       <c r="J20">
-        <v>0.1715150998377012</v>
+        <v>0.1009143885347377</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>14.2046695519863</v>
+        <v>14.423744</v>
       </c>
       <c r="N20">
-        <v>14.2046695519863</v>
+        <v>28.847488</v>
       </c>
       <c r="O20">
-        <v>0.07104063749809195</v>
+        <v>0.06684772114689447</v>
       </c>
       <c r="P20">
-        <v>0.07104063749809195</v>
+        <v>0.04668958901604686</v>
       </c>
       <c r="Q20">
-        <v>4.821025115646155</v>
+        <v>2.836664845418667</v>
       </c>
       <c r="R20">
-        <v>4.821025115646155</v>
+        <v>17.019989072512</v>
       </c>
       <c r="S20">
-        <v>0.01218454203301918</v>
+        <v>0.00552518466094321</v>
       </c>
       <c r="T20">
-        <v>0.01218454203301918</v>
+        <v>0.004711651326492575</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1706,10 +1706,10 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C21" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D21" t="s">
         <v>21</v>
@@ -1718,49 +1718,49 @@
         <v>1</v>
       </c>
       <c r="F21">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G21">
-        <v>0.339397203011457</v>
+        <v>0.1966663333333334</v>
       </c>
       <c r="H21">
-        <v>0.339397203011457</v>
+        <v>0.5899990000000001</v>
       </c>
       <c r="I21">
-        <v>0.1715150998377012</v>
+        <v>0.08265329866371805</v>
       </c>
       <c r="J21">
-        <v>0.1715150998377012</v>
+        <v>0.1009143885347377</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>12.37396553321</v>
+        <v>13.019874</v>
       </c>
       <c r="N21">
-        <v>12.37396553321</v>
+        <v>39.059622</v>
       </c>
       <c r="O21">
-        <v>0.06188488909520136</v>
+        <v>0.06034140002205402</v>
       </c>
       <c r="P21">
-        <v>0.06188488909520136</v>
+        <v>0.06321790300431507</v>
       </c>
       <c r="Q21">
-        <v>4.199689292131646</v>
+        <v>2.560570880042001</v>
       </c>
       <c r="R21">
-        <v>4.199689292131646</v>
+        <v>23.045137920378</v>
       </c>
       <c r="S21">
-        <v>0.01061419293160853</v>
+        <v>0.004987415757809715</v>
       </c>
       <c r="T21">
-        <v>0.01061419293160853</v>
+        <v>0.006379596026128813</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1768,61 +1768,61 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C22" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D22" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E22">
         <v>1</v>
       </c>
       <c r="F22">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G22">
-        <v>0.339397203011457</v>
+        <v>0.1966663333333334</v>
       </c>
       <c r="H22">
-        <v>0.339397203011457</v>
+        <v>0.5899990000000001</v>
       </c>
       <c r="I22">
-        <v>0.1715150998377012</v>
+        <v>0.08265329866371805</v>
       </c>
       <c r="J22">
-        <v>0.1715150998377012</v>
+        <v>0.1009143885347377</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>53.5657280444015</v>
+        <v>65.70614066666667</v>
       </c>
       <c r="N22">
-        <v>53.5657280444015</v>
+        <v>197.118422</v>
       </c>
       <c r="O22">
-        <v>0.2678938397262179</v>
+        <v>0.3045191157666107</v>
       </c>
       <c r="P22">
-        <v>0.2678938397262179</v>
+        <v>0.3190356855568045</v>
       </c>
       <c r="Q22">
-        <v>18.18005827554223</v>
+        <v>12.92218576239756</v>
       </c>
       <c r="R22">
-        <v>18.18005827554223</v>
+        <v>116.299671861578</v>
       </c>
       <c r="S22">
-        <v>0.0459478386665474</v>
+        <v>0.025169509424269</v>
       </c>
       <c r="T22">
-        <v>0.0459478386665474</v>
+        <v>0.03219529112872577</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1830,61 +1830,61 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C23" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E23">
         <v>1</v>
       </c>
       <c r="F23">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G23">
-        <v>0.339397203011457</v>
+        <v>0.1966663333333334</v>
       </c>
       <c r="H23">
-        <v>0.339397203011457</v>
+        <v>0.5899990000000001</v>
       </c>
       <c r="I23">
-        <v>0.1715150998377012</v>
+        <v>0.08265329866371805</v>
       </c>
       <c r="J23">
-        <v>0.1715150998377012</v>
+        <v>0.1009143885347377</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>94.24425453379919</v>
+        <v>96.450714</v>
       </c>
       <c r="N23">
-        <v>94.24425453379919</v>
+        <v>289.352142</v>
       </c>
       <c r="O23">
-        <v>0.4713359855440863</v>
+        <v>0.4470067157244936</v>
       </c>
       <c r="P23">
-        <v>0.4713359855440863</v>
+        <v>0.4683157365692581</v>
       </c>
       <c r="Q23">
-        <v>31.98623638867127</v>
+        <v>18.968608269762</v>
       </c>
       <c r="R23">
-        <v>31.98623638867127</v>
+        <v>170.717474427858</v>
       </c>
       <c r="S23">
-        <v>0.08084123861769527</v>
+        <v>0.03694657957946428</v>
       </c>
       <c r="T23">
-        <v>0.08084123861769527</v>
+        <v>0.04725979619708198</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1892,61 +1892,61 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
         <v>24</v>
       </c>
-      <c r="C24" t="s">
-        <v>25</v>
-      </c>
-      <c r="D24" t="s">
-        <v>22</v>
-      </c>
       <c r="E24">
         <v>1</v>
       </c>
       <c r="F24">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G24">
-        <v>0.339397203011457</v>
+        <v>0.1966663333333334</v>
       </c>
       <c r="H24">
-        <v>0.339397203011457</v>
+        <v>0.5899990000000001</v>
       </c>
       <c r="I24">
-        <v>0.1715150998377012</v>
+        <v>0.08265329866371805</v>
       </c>
       <c r="J24">
-        <v>0.1715150998377012</v>
+        <v>0.1009143885347377</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>10.9357766761738</v>
+        <v>11.139906</v>
       </c>
       <c r="N24">
-        <v>10.9357766761738</v>
+        <v>33.419718</v>
       </c>
       <c r="O24">
-        <v>0.05469219426533697</v>
+        <v>0.05162857368313087</v>
       </c>
       <c r="P24">
-        <v>0.05469219426533697</v>
+        <v>0.05408973212683835</v>
       </c>
       <c r="Q24">
-        <v>3.711572016651316</v>
+        <v>2.190844466698</v>
       </c>
       <c r="R24">
-        <v>3.711572016651316</v>
+        <v>19.717600200282</v>
       </c>
       <c r="S24">
-        <v>0.009380537159762222</v>
+        <v>0.00426727192021359</v>
       </c>
       <c r="T24">
-        <v>0.009380537159762222</v>
+        <v>0.00545843224358765</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1954,61 +1954,805 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>25</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G25">
+        <v>0.1966663333333334</v>
+      </c>
+      <c r="H25">
+        <v>0.5899990000000001</v>
+      </c>
+      <c r="I25">
+        <v>0.08265329866371805</v>
+      </c>
+      <c r="J25">
+        <v>0.1009143885347377</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>15.029789</v>
+      </c>
+      <c r="N25">
+        <v>30.059578</v>
+      </c>
+      <c r="O25">
+        <v>0.06965647365681629</v>
+      </c>
+      <c r="P25">
+        <v>0.04865135372673711</v>
+      </c>
+      <c r="Q25">
+        <v>2.955853493403667</v>
+      </c>
+      <c r="R25">
+        <v>17.735120960422</v>
+      </c>
+      <c r="S25">
+        <v>0.005757337321018246</v>
+      </c>
+      <c r="T25">
+        <v>0.004909621612720908</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
         <v>24</v>
       </c>
-      <c r="C25" t="s">
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>0.5428536666666667</v>
+      </c>
+      <c r="H26">
+        <v>1.628561</v>
+      </c>
+      <c r="I26">
+        <v>0.2281460455442862</v>
+      </c>
+      <c r="J26">
+        <v>0.2785517221326154</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>14.423744</v>
+      </c>
+      <c r="N26">
+        <v>28.847488</v>
+      </c>
+      <c r="O26">
+        <v>0.06684772114689447</v>
+      </c>
+      <c r="P26">
+        <v>0.04668958901604686</v>
+      </c>
+      <c r="Q26">
+        <v>7.829982317461333</v>
+      </c>
+      <c r="R26">
+        <v>46.979893904768</v>
+      </c>
+      <c r="S26">
+        <v>0.01525104323331113</v>
+      </c>
+      <c r="T26">
+        <v>0.0130054654260839</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>0.5428536666666667</v>
+      </c>
+      <c r="H27">
+        <v>1.628561</v>
+      </c>
+      <c r="I27">
+        <v>0.2281460455442862</v>
+      </c>
+      <c r="J27">
+        <v>0.2785517221326154</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>13.019874</v>
+      </c>
+      <c r="N27">
+        <v>39.059622</v>
+      </c>
+      <c r="O27">
+        <v>0.06034140002205402</v>
+      </c>
+      <c r="P27">
+        <v>0.06321790300431507</v>
+      </c>
+      <c r="Q27">
+        <v>7.067886340438001</v>
+      </c>
+      <c r="R27">
+        <v>63.610977063942</v>
+      </c>
+      <c r="S27">
+        <v>0.01376665179763753</v>
+      </c>
+      <c r="T27">
+        <v>0.0176094557514646</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28">
+        <v>3</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>0.5428536666666667</v>
+      </c>
+      <c r="H28">
+        <v>1.628561</v>
+      </c>
+      <c r="I28">
+        <v>0.2281460455442862</v>
+      </c>
+      <c r="J28">
+        <v>0.2785517221326154</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>65.70614066666667</v>
+      </c>
+      <c r="N28">
+        <v>197.118422</v>
+      </c>
+      <c r="O28">
+        <v>0.3045191157666107</v>
+      </c>
+      <c r="P28">
+        <v>0.3190356855568045</v>
+      </c>
+      <c r="Q28">
+        <v>35.66881938341578</v>
+      </c>
+      <c r="R28">
+        <v>321.019374450742</v>
+      </c>
+      <c r="S28">
+        <v>0.06947483205479492</v>
+      </c>
+      <c r="T28">
+        <v>0.08886793963360745</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29">
+        <v>3</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>0.5428536666666667</v>
+      </c>
+      <c r="H29">
+        <v>1.628561</v>
+      </c>
+      <c r="I29">
+        <v>0.2281460455442862</v>
+      </c>
+      <c r="J29">
+        <v>0.2785517221326154</v>
+      </c>
+      <c r="K29">
+        <v>3</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>96.450714</v>
+      </c>
+      <c r="N29">
+        <v>289.352142</v>
+      </c>
+      <c r="O29">
+        <v>0.4470067157244936</v>
+      </c>
+      <c r="P29">
+        <v>0.4683157365692581</v>
+      </c>
+      <c r="Q29">
+        <v>52.358623747518</v>
+      </c>
+      <c r="R29">
+        <v>471.227613727662</v>
+      </c>
+      <c r="S29">
+        <v>0.1019828145242821</v>
+      </c>
+      <c r="T29">
+        <v>0.1304501549231711</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>0.5428536666666667</v>
+      </c>
+      <c r="H30">
+        <v>1.628561</v>
+      </c>
+      <c r="I30">
+        <v>0.2281460455442862</v>
+      </c>
+      <c r="J30">
+        <v>0.2785517221326154</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>11.139906</v>
+      </c>
+      <c r="N30">
+        <v>33.419718</v>
+      </c>
+      <c r="O30">
+        <v>0.05162857368313087</v>
+      </c>
+      <c r="P30">
+        <v>0.05408973212683835</v>
+      </c>
+      <c r="Q30">
+        <v>6.047338818422001</v>
+      </c>
+      <c r="R30">
+        <v>54.426049365798</v>
+      </c>
+      <c r="S30">
+        <v>0.01177885492289811</v>
+      </c>
+      <c r="T30">
+        <v>0.01506678803362268</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
         <v>25</v>
       </c>
-      <c r="D25" t="s">
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>0.5428536666666667</v>
+      </c>
+      <c r="H31">
+        <v>1.628561</v>
+      </c>
+      <c r="I31">
+        <v>0.2281460455442862</v>
+      </c>
+      <c r="J31">
+        <v>0.2785517221326154</v>
+      </c>
+      <c r="K31">
+        <v>2</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>15.029789</v>
+      </c>
+      <c r="N31">
+        <v>30.059578</v>
+      </c>
+      <c r="O31">
+        <v>0.06965647365681629</v>
+      </c>
+      <c r="P31">
+        <v>0.04865135372673711</v>
+      </c>
+      <c r="Q31">
+        <v>8.158976067876335</v>
+      </c>
+      <c r="R31">
+        <v>48.953856407258</v>
+      </c>
+      <c r="S31">
+        <v>0.01589184901136238</v>
+      </c>
+      <c r="T31">
+        <v>0.01355191836466566</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>2</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>0.3770265</v>
+      </c>
+      <c r="H32">
+        <v>0.754053</v>
+      </c>
+      <c r="I32">
+        <v>0.158453576575399</v>
+      </c>
+      <c r="J32">
+        <v>0.1289744515122645</v>
+      </c>
+      <c r="K32">
+        <v>2</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>14.423744</v>
+      </c>
+      <c r="N32">
+        <v>28.847488</v>
+      </c>
+      <c r="O32">
+        <v>0.06684772114689447</v>
+      </c>
+      <c r="P32">
+        <v>0.04668958901604686</v>
+      </c>
+      <c r="Q32">
+        <v>5.438133717215999</v>
+      </c>
+      <c r="R32">
+        <v>21.752534868864</v>
+      </c>
+      <c r="S32">
+        <v>0.01059226050164037</v>
+      </c>
+      <c r="T32">
+        <v>0.006021764134677694</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>2</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>0.3770265</v>
+      </c>
+      <c r="H33">
+        <v>0.754053</v>
+      </c>
+      <c r="I33">
+        <v>0.158453576575399</v>
+      </c>
+      <c r="J33">
+        <v>0.1289744515122645</v>
+      </c>
+      <c r="K33">
+        <v>3</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>13.019874</v>
+      </c>
+      <c r="N33">
+        <v>39.059622</v>
+      </c>
+      <c r="O33">
+        <v>0.06034140002205402</v>
+      </c>
+      <c r="P33">
+        <v>0.06321790300431507</v>
+      </c>
+      <c r="Q33">
+        <v>4.908837524661</v>
+      </c>
+      <c r="R33">
+        <v>29.453025147966</v>
+      </c>
+      <c r="S33">
+        <v>0.009561310649061322</v>
+      </c>
+      <c r="T33">
+        <v>0.008153494365737075</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>2</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>0.3770265</v>
+      </c>
+      <c r="H34">
+        <v>0.754053</v>
+      </c>
+      <c r="I34">
+        <v>0.158453576575399</v>
+      </c>
+      <c r="J34">
+        <v>0.1289744515122645</v>
+      </c>
+      <c r="K34">
+        <v>3</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <v>65.70614066666667</v>
+      </c>
+      <c r="N34">
+        <v>197.118422</v>
+      </c>
+      <c r="O34">
+        <v>0.3045191157666107</v>
+      </c>
+      <c r="P34">
+        <v>0.3190356855568045</v>
+      </c>
+      <c r="Q34">
+        <v>24.772956244061</v>
+      </c>
+      <c r="R34">
+        <v>148.637737464366</v>
+      </c>
+      <c r="S34">
+        <v>0.04825214302879745</v>
+      </c>
+      <c r="T34">
+        <v>0.04114745255752816</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
         <v>23</v>
       </c>
-      <c r="E25">
-        <v>1</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25">
-        <v>0.339397203011457</v>
-      </c>
-      <c r="H25">
-        <v>0.339397203011457</v>
-      </c>
-      <c r="I25">
-        <v>0.1715150998377012</v>
-      </c>
-      <c r="J25">
-        <v>0.1715150998377012</v>
-      </c>
-      <c r="K25">
-        <v>1</v>
-      </c>
-      <c r="L25">
-        <v>1</v>
-      </c>
-      <c r="M25">
-        <v>14.6269300325932</v>
-      </c>
-      <c r="N25">
-        <v>14.6269300325932</v>
-      </c>
-      <c r="O25">
-        <v>0.0731524538710656</v>
-      </c>
-      <c r="P25">
-        <v>0.0731524538710656</v>
-      </c>
-      <c r="Q25">
-        <v>4.964339141706412</v>
-      </c>
-      <c r="R25">
-        <v>4.964339141706412</v>
-      </c>
-      <c r="S25">
-        <v>0.01254675042906865</v>
-      </c>
-      <c r="T25">
-        <v>0.01254675042906865</v>
+      <c r="E35">
+        <v>2</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>0.3770265</v>
+      </c>
+      <c r="H35">
+        <v>0.754053</v>
+      </c>
+      <c r="I35">
+        <v>0.158453576575399</v>
+      </c>
+      <c r="J35">
+        <v>0.1289744515122645</v>
+      </c>
+      <c r="K35">
+        <v>3</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>96.450714</v>
+      </c>
+      <c r="N35">
+        <v>289.352142</v>
+      </c>
+      <c r="O35">
+        <v>0.4470067157244936</v>
+      </c>
+      <c r="P35">
+        <v>0.4683157365692581</v>
+      </c>
+      <c r="Q35">
+        <v>36.364475121921</v>
+      </c>
+      <c r="R35">
+        <v>218.186850731526</v>
+      </c>
+      <c r="S35">
+        <v>0.07082981285976868</v>
+      </c>
+      <c r="T35">
+        <v>0.06040076525858222</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36">
+        <v>2</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>0.3770265</v>
+      </c>
+      <c r="H36">
+        <v>0.754053</v>
+      </c>
+      <c r="I36">
+        <v>0.158453576575399</v>
+      </c>
+      <c r="J36">
+        <v>0.1289744515122645</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>11.139906</v>
+      </c>
+      <c r="N36">
+        <v>33.419718</v>
+      </c>
+      <c r="O36">
+        <v>0.05162857368313087</v>
+      </c>
+      <c r="P36">
+        <v>0.05408973212683835</v>
+      </c>
+      <c r="Q36">
+        <v>4.200039769509001</v>
+      </c>
+      <c r="R36">
+        <v>25.200238617054</v>
+      </c>
+      <c r="S36">
+        <v>0.008180732153578609</v>
+      </c>
+      <c r="T36">
+        <v>0.00697619353350429</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>2</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>0.3770265</v>
+      </c>
+      <c r="H37">
+        <v>0.754053</v>
+      </c>
+      <c r="I37">
+        <v>0.158453576575399</v>
+      </c>
+      <c r="J37">
+        <v>0.1289744515122645</v>
+      </c>
+      <c r="K37">
+        <v>2</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>15.029789</v>
+      </c>
+      <c r="N37">
+        <v>30.059578</v>
+      </c>
+      <c r="O37">
+        <v>0.06965647365681629</v>
+      </c>
+      <c r="P37">
+        <v>0.04865135372673711</v>
+      </c>
+      <c r="Q37">
+        <v>5.6666287424085</v>
+      </c>
+      <c r="R37">
+        <v>22.666514969634</v>
+      </c>
+      <c r="S37">
+        <v>0.01103731738255261</v>
+      </c>
+      <c r="T37">
+        <v>0.006274781662235085</v>
       </c>
     </row>
   </sheetData>
